--- a/data/6_tables/tables_appendix/App_Table7_with_savings.xlsx
+++ b/data/6_tables/tables_appendix/App_Table7_with_savings.xlsx
@@ -1957,7 +1957,7 @@
         <v>0.03206230926915473</v>
       </c>
       <c r="F19" s="1">
-        <v>0.073349073502600795</v>
+        <v>0.073349075651397935</v>
       </c>
       <c r="G19" s="1">
         <v>0.45164756327867511</v>
@@ -1966,7 +1966,7 @@
         <v>-0.042789928615093231</v>
       </c>
       <c r="I19" s="1">
-        <v>1.649266696583342</v>
+        <v>1.6492666987321389</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1975,10 +1975,10 @@
         <v>0.091583773493766785</v>
       </c>
       <c r="L19" s="1">
-        <v>-0.0044323524658501333</v>
+        <v>-0.0044323525134220996</v>
       </c>
       <c r="M19" s="1">
-        <v>1.0871514239159044</v>
+        <v>1.0871514238683326</v>
       </c>
       <c r="N19" s="1">
         <v>1.5170533657073975</v>
@@ -2004,7 +2004,7 @@
         <v>0.038474467354828699</v>
       </c>
       <c r="F20" s="1">
-        <v>0.10271336621005089</v>
+        <v>0.10271337351791569</v>
       </c>
       <c r="G20" s="1">
         <v>0.56373786926269531</v>
@@ -2013,7 +2013,7 @@
         <v>-0.051347509026527405</v>
       </c>
       <c r="I20" s="1">
-        <v>1.8155741298625441</v>
+        <v>1.8155741371704091</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2022,13 +2022,13 @@
         <v>0.1084732860326767</v>
       </c>
       <c r="L20" s="1">
-        <v>-0.0055789482581259002</v>
+        <v>-0.0055789484008418001</v>
       </c>
       <c r="M20" s="1">
-        <v>1.1028943399915689</v>
+        <v>1.102894339848854</v>
       </c>
       <c r="N20" s="1">
-        <v>1.6461904500084961</v>
+        <v>1.6461904568475929</v>
       </c>
       <c r="O20" s="1">
         <v>0.093673850924497704</v>
@@ -2051,7 +2051,7 @@
         <v>0.034278950145756097</v>
       </c>
       <c r="F21" s="1">
-        <v>0.077701796722114094</v>
+        <v>0.077701796256452793</v>
       </c>
       <c r="G21" s="1">
         <v>0.48204705119133001</v>
@@ -2060,7 +2060,7 @@
         <v>-0.045748230069875717</v>
       </c>
       <c r="I21" s="1">
-        <v>1.692610369172092</v>
+        <v>1.6926103687064309</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>1.0919184879628969</v>
       </c>
       <c r="N21" s="1">
-        <v>1.5501252042447391</v>
+        <v>1.5501252038182769</v>
       </c>
       <c r="O21" s="1">
         <v>0.083459018059644396</v>
@@ -2098,7 +2098,7 @@
         <v>0.023433510306879402</v>
       </c>
       <c r="F22" s="1">
-        <v>0.039632057575637397</v>
+        <v>0.039632057179825299</v>
       </c>
       <c r="G22" s="1">
         <v>0.30915776938200001</v>
@@ -2107,7 +2107,7 @@
         <v>-0.03127405047416687</v>
       </c>
       <c r="I22" s="1">
-        <v>1.43961559071539</v>
+        <v>1.4396155903195771</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>1.066641443793247</v>
       </c>
       <c r="N22" s="1">
-        <v>1.3496715312277321</v>
+        <v>1.349671530856648</v>
       </c>
       <c r="O22" s="1">
         <v>0.057053607289219703</v>
@@ -2145,7 +2145,7 @@
         <v>-0.026991616193646501</v>
       </c>
       <c r="F23" s="1">
-        <v>7.9593063568300001e-09</v>
+        <v>7.9593067369100005e-09</v>
       </c>
       <c r="G23" s="1">
         <v>0.00013631374167739999</v>
@@ -2154,7 +2154,7 @@
         <v>0.036022651940584183</v>
       </c>
       <c r="I23" s="1">
-        <v>0.89551972249158773</v>
+        <v>0.89551972249158818</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>0.92653659426340185</v>
       </c>
       <c r="N23" s="1">
-        <v>0.96652385673285513</v>
+        <v>0.96652385673285557</v>
       </c>
       <c r="O23" s="1">
         <v>-0.065716533726556503</v>
@@ -2794,43 +2794,43 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.031452156909775764</v>
+        <v>0.03121332060346706</v>
       </c>
       <c r="D37" s="1">
-        <v>0.003095985176031667</v>
+        <v>0.0030724828683651</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.026359667161561798</v>
+        <v>-0.026147463265307602</v>
       </c>
       <c r="F37" s="1">
-        <v>0.00039732808950858329</v>
+        <v>0.00038828478143716343</v>
       </c>
       <c r="G37" s="1">
-        <v>0.014026631833985467</v>
+        <v>0.013802629779092968</v>
       </c>
       <c r="H37" s="1">
-        <v>-0.0064803385175764561</v>
+        <v>-0.0064310827292501926</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0465890180478112</v>
+        <v>1.0461235768468893</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>0.0045025120489299297</v>
+        <v>0.0044682840816676617</v>
       </c>
       <c r="L37" s="1">
-        <v>-0.00079056171368533333</v>
+        <v>-0.00078431150040873332</v>
       </c>
       <c r="M37" s="1">
-        <v>1.0037119502304088</v>
+        <v>1.0036839726253257</v>
       </c>
       <c r="N37" s="1">
-        <v>1.0427185297012329</v>
+        <v>1.0422837734222412</v>
       </c>
       <c r="O37" s="1">
-        <v>0.030456921974871733</v>
+        <v>0.030225404957664733</v>
       </c>
     </row>
     <row r="38">
@@ -2841,43 +2841,43 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.069934962800090497</v>
+        <v>0.069403901981437394</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0068840305209120004</v>
+        <v>0.0068317723238960001</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.058611635051128298</v>
+        <v>-0.058139792320816501</v>
       </c>
       <c r="F38" s="1">
-        <v>0.0010987804541329001</v>
+        <v>0.0010737499811361</v>
       </c>
       <c r="G38" s="1">
-        <v>0.031326055526733399</v>
+        <v>0.030823653563857099</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.014409258030354977</v>
+        <v>-0.014299736358225346</v>
       </c>
       <c r="I38" s="1">
-        <v>1.1039449593809789</v>
+        <v>1.102900786731422</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>0.010011491365730762</v>
+        <v>0.0099353846162557602</v>
       </c>
       <c r="L38" s="1">
-        <v>-0.0017662458995693</v>
+        <v>-0.0017521497349142999</v>
       </c>
       <c r="M38" s="1">
-        <v>1.0082452457199229</v>
+        <v>1.0081832351421831</v>
       </c>
       <c r="N38" s="1">
-        <v>1.09491709885795</v>
+        <v>1.0939487469020259</v>
       </c>
       <c r="O38" s="1">
-        <v>0.067722023371181994</v>
+        <v>0.067207237245946794</v>
       </c>
     </row>
     <row r="39">
@@ -2888,43 +2888,43 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>0.020070094290515699</v>
+        <v>0.0199176892519164</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0019755946971535001</v>
+        <v>0.0019605975212112999</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.016820500003124399</v>
+        <v>-0.016685089505871099</v>
       </c>
       <c r="F39" s="1">
-        <v>8.9039531560699997e-05</v>
+        <v>8.7033570602099999e-05</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0088456952944397996</v>
+        <v>0.0087060621008276992</v>
       </c>
       <c r="H39" s="1">
-        <v>-0.0041352016851305962</v>
+        <v>-0.0041037704795598984</v>
       </c>
       <c r="I39" s="1">
-        <v>1.029459742101871</v>
+        <v>1.0291698076684051</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>0.0028731205966323614</v>
+        <v>0.0028512792196124792</v>
       </c>
       <c r="L39" s="1">
-        <v>-0.00049804804047440005</v>
+        <v>-0.00049421157173539995</v>
       </c>
       <c r="M39" s="1">
-        <v>1.002375072538231</v>
+        <v>1.002357067721368</v>
       </c>
       <c r="N39" s="1">
-        <v>1.0270204939305361</v>
+        <v>1.0267496891182599</v>
       </c>
       <c r="O39" s="1">
-        <v>0.0194350199125632</v>
+        <v>0.019287285422405001</v>
       </c>
     </row>
     <row r="40">
@@ -2935,43 +2935,43 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>0.0043514136387210996</v>
+        <v>0.0043183705770473997</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0004283303100295</v>
+        <v>0.00042507875998800001</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0036468664304326998</v>
+        <v>-0.0036175079692352002</v>
       </c>
       <c r="F40" s="1">
-        <v>4.1642828321499999e-06</v>
+        <v>4.0707925732899996e-06</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0019081446807832001</v>
+        <v>0.0018781736725940999</v>
       </c>
       <c r="H40" s="1">
-        <v>-0.00089655647752806544</v>
+        <v>-0.00088974187383428216</v>
       </c>
       <c r="I40" s="1">
-        <v>1.006362352660584</v>
+        <v>1.006300136140841</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>0.00062292366055771709</v>
+        <v>0.00061818823451176286</v>
       </c>
       <c r="L40" s="1">
-        <v>-0.0001073912010123</v>
+        <v>-0.0001065731945765</v>
       </c>
       <c r="M40" s="1">
-        <v>1.0005155324330719</v>
+        <v>1.000511615012426</v>
       </c>
       <c r="N40" s="1">
-        <v>1.005843807555185</v>
+        <v>1.0057855611484761</v>
       </c>
       <c r="O40" s="1">
-        <v>0.0042137226408699999</v>
+        <v>0.0041816922046424001</v>
       </c>
     </row>
     <row r="41">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>-0.00024493372357030005</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G63" s="1">
         <v>-0.0019331218328514999</v>
@@ -4034,7 +4034,7 @@
         <v>0.059814266860485077</v>
       </c>
       <c r="I63" s="1">
-        <v>0.62511861380321199</v>
+        <v>0.62511861378403022</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -4043,10 +4043,10 @@
         <v>-0.073527634143829346</v>
       </c>
       <c r="L63" s="1">
-        <v>0.0044713007961880167</v>
+        <v>0.0044713007965626163</v>
       </c>
       <c r="M63" s="1">
-        <v>0.93094366694461561</v>
+        <v>0.93094366694499031</v>
       </c>
       <c r="N63" s="1">
         <v>0.6714891791343689</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G64" s="1">
         <v>-0.0019331218328515001</v>
@@ -4081,7 +4081,7 @@
         <v>0.097820498049259186</v>
       </c>
       <c r="I64" s="1">
-        <v>0.38807094812633719</v>
+        <v>0.38807094810715559</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -4090,13 +4090,13 @@
         <v>-0.1201399490237236</v>
       </c>
       <c r="L64" s="1">
-        <v>0.0073154830831773004</v>
+        <v>0.0073154830835519</v>
       </c>
       <c r="M64" s="1">
-        <v>0.88717553515370773</v>
+        <v>0.88717553515408232</v>
       </c>
       <c r="N64" s="1">
-        <v>0.43742295943620879</v>
+        <v>0.43742295941440318</v>
       </c>
       <c r="O64" s="1">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G65" s="1">
         <v>-0.0019331218328515001</v>
@@ -4128,7 +4128,7 @@
         <v>0.084415920078754425</v>
       </c>
       <c r="I65" s="1">
-        <v>0.47167628297668368</v>
+        <v>0.47167628295750208</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -4137,13 +4137,13 @@
         <v>-0.10370005667209625</v>
       </c>
       <c r="L65" s="1">
-        <v>0.0063123565102993998</v>
+        <v>0.0063123565106740004</v>
       </c>
       <c r="M65" s="1">
-        <v>0.90261230101978018</v>
+        <v>0.90261230102015477</v>
       </c>
       <c r="N65" s="1">
-        <v>0.52256797568987179</v>
+        <v>0.52256797566840363</v>
       </c>
       <c r="O65" s="1">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G66" s="1">
         <v>-0.0019331218328515001</v>
@@ -4175,7 +4175,7 @@
         <v>0.078245557844638824</v>
       </c>
       <c r="I66" s="1">
-        <v>0.51016127838398551</v>
+        <v>0.51016127836480396</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -4184,13 +4184,13 @@
         <v>-0.096132487058639526</v>
       </c>
       <c r="L66" s="1">
-        <v>0.0058505998338952</v>
+        <v>0.0058505998342697997</v>
       </c>
       <c r="M66" s="1">
-        <v>0.909718113878766</v>
+        <v>0.90971811387914059</v>
       </c>
       <c r="N66" s="1">
-        <v>0.5607905026852883</v>
+        <v>0.56079050266397223</v>
       </c>
       <c r="O66" s="1">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G67" s="1">
         <v>-0.0019331218328515001</v>
@@ -4222,7 +4222,7 @@
         <v>0.07547953724861145</v>
       </c>
       <c r="I67" s="1">
-        <v>0.52741317287691447</v>
+        <v>0.52741317285773293</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -4231,13 +4231,13 @@
         <v>-0.092740125954151154</v>
       </c>
       <c r="L67" s="1">
-        <v>0.0056436054617139998</v>
+        <v>0.0056436054620886003</v>
       </c>
       <c r="M67" s="1">
-        <v>0.91290347826382845</v>
+        <v>0.91290347826420304</v>
       </c>
       <c r="N67" s="1">
-        <v>0.5777315843729236</v>
+        <v>0.57773158435167504</v>
       </c>
       <c r="O67" s="1">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G68" s="1">
         <v>-0.0019331218328515001</v>
@@ -4269,7 +4269,7 @@
         <v>0.071011342108249664</v>
       </c>
       <c r="I68" s="1">
-        <v>0.55528161782702978</v>
+        <v>0.55528161780784813</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -4278,13 +4278,13 @@
         <v>-0.087260164320468903</v>
       </c>
       <c r="L68" s="1">
-        <v>0.0053092299374214004</v>
+        <v>0.0053092299377960001</v>
       </c>
       <c r="M68" s="1">
-        <v>0.91804906688585264</v>
+        <v>0.91804906688622723</v>
       </c>
       <c r="N68" s="1">
-        <v>0.60484960756032424</v>
+        <v>0.60484960753918349</v>
       </c>
       <c r="O68" s="1">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G69" s="1">
         <v>-0.0019331218328515001</v>
@@ -4316,7 +4316,7 @@
         <v>0.068670861423015594</v>
       </c>
       <c r="I69" s="1">
-        <v>0.56987937470566186</v>
+        <v>0.56987937468648031</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -4325,13 +4325,13 @@
         <v>-0.084389708936214447</v>
       </c>
       <c r="L69" s="1">
-        <v>0.0051340808532681004</v>
+        <v>0.0051340808536427</v>
       </c>
       <c r="M69" s="1">
-        <v>0.92074437521167485</v>
+        <v>0.92074437521204955</v>
       </c>
       <c r="N69" s="1">
-        <v>0.61893332182957861</v>
+        <v>0.61893332180849414</v>
       </c>
       <c r="O69" s="1">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G70" s="1">
         <v>-0.0019331218328515001</v>
@@ -4363,7 +4363,7 @@
         <v>0.062713272869586945</v>
       </c>
       <c r="I70" s="1">
-        <v>0.6070373013058159</v>
+        <v>0.60703730128663425</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -4372,13 +4372,13 @@
         <v>-0.077083088457584381</v>
       </c>
       <c r="L70" s="1">
-        <v>0.0046882468208778996</v>
+        <v>0.0046882468212525001</v>
       </c>
       <c r="M70" s="1">
-        <v>0.92760516004104043</v>
+        <v>0.92760516004141502</v>
       </c>
       <c r="N70" s="1">
-        <v>0.65441345893220182</v>
+        <v>0.65441345891125891</v>
       </c>
       <c r="O70" s="1">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G71" s="1">
         <v>-0.0019331218328515001</v>
@@ -4410,7 +4410,7 @@
         <v>0.059521708637475968</v>
       </c>
       <c r="I71" s="1">
-        <v>0.62694333341304076</v>
+        <v>0.6269433333938591</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -4419,13 +4419,13 @@
         <v>-0.073168829083442688</v>
       </c>
       <c r="L71" s="1">
-        <v>0.0044494071606688999</v>
+        <v>0.0044494071610435004</v>
       </c>
       <c r="M71" s="1">
-        <v>0.93128058048534335</v>
+        <v>0.93128058048571793</v>
       </c>
       <c r="N71" s="1">
-        <v>0.6732056337804283</v>
+        <v>0.67320563375956044</v>
       </c>
       <c r="O71" s="1">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G72" s="1">
         <v>-0.0019331218328515001</v>
@@ -4457,7 +4457,7 @@
         <v>0.042074479162693024</v>
       </c>
       <c r="I72" s="1">
-        <v>0.73576297559920612</v>
+        <v>0.73576297558002446</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -4466,13 +4466,13 @@
         <v>-0.051770869642496109</v>
       </c>
       <c r="L72" s="1">
-        <v>0.0031437503515261002</v>
+        <v>0.0031437503519006998</v>
       </c>
       <c r="M72" s="1">
-        <v>0.95137287891419975</v>
+        <v>0.95137287891457434</v>
       </c>
       <c r="N72" s="1">
-        <v>0.77336971854708658</v>
+        <v>0.77336971852661995</v>
       </c>
       <c r="O72" s="1">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G73" s="1">
         <v>-0.0019331218328515001</v>
@@ -4504,7 +4504,7 @@
         <v>0.034840263426303864</v>
       </c>
       <c r="I73" s="1">
-        <v>0.78088331504225006</v>
+        <v>0.78088331502306851</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -4513,13 +4513,13 @@
         <v>-0.042898546904325485</v>
       </c>
       <c r="L73" s="1">
-        <v>0.0026023804550523002</v>
+        <v>0.0026023804554268998</v>
       </c>
       <c r="M73" s="1">
-        <v>0.95970383192128628</v>
+        <v>0.95970383192166087</v>
       </c>
       <c r="N73" s="1">
-        <v>0.81367114423098097</v>
+        <v>0.81367114421067643</v>
       </c>
       <c r="O73" s="1">
         <v>0</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G74" s="1">
         <v>-0.0019331218328515001</v>
@@ -4551,7 +4551,7 @@
         <v>0.034095566719770432</v>
       </c>
       <c r="I74" s="1">
-        <v>0.78552805586726904</v>
+        <v>0.78552805584808749</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -4560,13 +4560,13 @@
         <v>-0.041985221207141876</v>
       </c>
       <c r="L74" s="1">
-        <v>0.0025466512010034999</v>
+        <v>0.0025466512013781</v>
       </c>
       <c r="M74" s="1">
-        <v>0.96056143002495686</v>
+        <v>0.96056143002533145</v>
       </c>
       <c r="N74" s="1">
-        <v>0.81778013494343593</v>
+        <v>0.81778013492314794</v>
       </c>
       <c r="O74" s="1">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G75" s="1">
         <v>-0.0019331218328515001</v>
@@ -4598,7 +4598,7 @@
         <v>0.0088821966201066971</v>
       </c>
       <c r="I75" s="1">
-        <v>0.94278570951434904</v>
+        <v>0.94278570949516749</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -4607,13 +4607,13 @@
         <v>-0.011062566190958023</v>
       </c>
       <c r="L75" s="1">
-        <v>0.00065981788535210005</v>
+        <v>0.00065981788572670003</v>
       </c>
       <c r="M75" s="1">
-        <v>0.98959725153495048</v>
+        <v>0.98959725153532507</v>
       </c>
       <c r="N75" s="1">
-        <v>0.95269637021728515</v>
+        <v>0.95269637019754139</v>
       </c>
       <c r="O75" s="1">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G76" s="1">
         <v>-0.0019331218328515001</v>
@@ -4645,7 +4645,7 @@
         <v>0.097372211515903473</v>
       </c>
       <c r="I76" s="1">
-        <v>0.39086693886930479</v>
+        <v>0.39086693885012319</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -4654,13 +4654,13 @@
         <v>-0.1195901557803154</v>
       </c>
       <c r="L76" s="1">
-        <v>0.0072819357908088002</v>
+        <v>0.0072819357911833998</v>
       </c>
       <c r="M76" s="1">
-        <v>0.8876917827656593</v>
+        <v>0.88769178276603389</v>
       </c>
       <c r="N76" s="1">
-        <v>0.44031830243097941</v>
+        <v>0.44031830240918513</v>
       </c>
       <c r="O76" s="1">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G77" s="1">
         <v>-0.0019331218328515001</v>
@@ -4692,7 +4692,7 @@
         <v>0.092501223087310791</v>
       </c>
       <c r="I77" s="1">
-        <v>0.42124766830504617</v>
+        <v>0.42124766828586457</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -4701,13 +4701,13 @@
         <v>-0.11361618340015411</v>
       </c>
       <c r="L77" s="1">
-        <v>0.0069174169828288999</v>
+        <v>0.0069174169832035004</v>
       </c>
       <c r="M77" s="1">
-        <v>0.89330123589421262</v>
+        <v>0.89330123589458721</v>
       </c>
       <c r="N77" s="1">
-        <v>0.47156284059471693</v>
+        <v>0.47156284057304643</v>
       </c>
       <c r="O77" s="1">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G78" s="1">
         <v>-0.0019331218328515001</v>
@@ -4739,7 +4739,7 @@
         <v>0.074415683746337891</v>
       </c>
       <c r="I78" s="1">
-        <v>0.53404851691265631</v>
+        <v>0.53404851689347477</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -4748,13 +4748,13 @@
         <v>-0.091435372829437256</v>
       </c>
       <c r="L78" s="1">
-        <v>0.0055639922416444</v>
+        <v>0.0055639922420189997</v>
       </c>
       <c r="M78" s="1">
-        <v>0.91412861841192949</v>
+        <v>0.91412861841230408</v>
       </c>
       <c r="N78" s="1">
-        <v>0.58421594746747174</v>
+        <v>0.58421594744624894</v>
       </c>
       <c r="O78" s="1">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G79" s="1">
         <v>-0.0019331218328515001</v>
@@ -4786,7 +4786,7 @@
         <v>0.071224115788936615</v>
       </c>
       <c r="I79" s="1">
-        <v>0.55395454901988139</v>
+        <v>0.55395454900069974</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -4795,13 +4795,13 @@
         <v>-0.087521113455295563</v>
       </c>
       <c r="L79" s="1">
-        <v>0.0053251525814352998</v>
+        <v>0.0053251525818099003</v>
       </c>
       <c r="M79" s="1">
-        <v>0.91780403885623241</v>
+        <v>0.917804038856607</v>
       </c>
       <c r="N79" s="1">
-        <v>0.60356516812697803</v>
+        <v>0.60356516810583216</v>
       </c>
       <c r="O79" s="1">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G80" s="1">
         <v>-0.0019331218328515001</v>
@@ -4833,7 +4833,7 @@
         <v>0.066755920648574829</v>
       </c>
       <c r="I80" s="1">
-        <v>0.58182299396999693</v>
+        <v>0.58182299395081527</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -4842,13 +4842,13 @@
         <v>-0.082041151821613312</v>
       </c>
       <c r="L80" s="1">
-        <v>0.0049907770571427004</v>
+        <v>0.0049907770575173</v>
       </c>
       <c r="M80" s="1">
-        <v>0.9229496274782566</v>
+        <v>0.92294962747863118</v>
       </c>
       <c r="N80" s="1">
-        <v>0.63039517720993266</v>
+        <v>0.63039517718889382</v>
       </c>
       <c r="O80" s="1">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>-0.0002449337235703</v>
+        <v>-0.00024493374275189999</v>
       </c>
       <c r="G81" s="1">
         <v>-0.0019331218328515001</v>
@@ -4880,7 +4880,7 @@
         <v>0.014137641526758671</v>
       </c>
       <c r="I81" s="1">
-        <v>0.91000710997778467</v>
+        <v>0.91000710995860301</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -4889,13 +4889,13 @@
         <v>-0.017508048564195633</v>
       </c>
       <c r="L81" s="1">
-        <v>0.0010531071924963001</v>
+        <v>0.0010531071928709</v>
       </c>
       <c r="M81" s="1">
-        <v>0.98354505920333146</v>
+        <v>0.98354505920370605</v>
       </c>
       <c r="N81" s="1">
-        <v>0.92523174354094939</v>
+        <v>0.9252317435210945</v>
       </c>
       <c r="O81" s="1">
         <v>0</v>
